--- a/Experiments/Part1-Uniform-MajorMinor/Peer-follow-similarity/Uniform Results/Graphs.xlsx
+++ b/Experiments/Part1-Uniform-MajorMinor/Peer-follow-similarity/Uniform Results/Graphs.xlsx
@@ -2598,20 +2598,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2113300520"/>
-        <c:axId val="-2113390536"/>
+        <c:axId val="2103816376"/>
+        <c:axId val="2103817784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2113300520"/>
+        <c:axId val="2103816376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113390536"/>
+        <c:crossAx val="2103817784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2619,18 +2638,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2113390536"/>
+        <c:axId val="2103817784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Accumulated Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113300520"/>
+        <c:crossAx val="2103816376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5094,20 +5132,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2126370280"/>
-        <c:axId val="-2126504984"/>
+        <c:axId val="2104435320"/>
+        <c:axId val="2104036040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2126370280"/>
+        <c:axId val="2104435320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126504984"/>
+        <c:crossAx val="2104036040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5115,18 +5172,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2126504984"/>
+        <c:axId val="2104036040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Accumulated Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126370280"/>
+        <c:crossAx val="2104435320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5714,20 +5790,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2124884568"/>
-        <c:axId val="-2123438264"/>
+        <c:axId val="2107243480"/>
+        <c:axId val="2106754200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2124884568"/>
+        <c:axId val="2107243480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123438264"/>
+        <c:crossAx val="2106754200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5735,18 +5830,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2123438264"/>
+        <c:axId val="2106754200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Accumulated Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124884568"/>
+        <c:crossAx val="2107243480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5868,35 +5982,35 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 1000" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 800" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 700" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 500" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 400" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 300" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 200" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 100" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 200" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 300" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 400" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 500" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 700" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 800" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 1000" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6224,7 +6338,7 @@
   <dimension ref="A1:AC81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AB1:AC1048576"/>
+      <selection activeCell="AM24" sqref="AM24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
